--- a/docs/工作簿1.xlsx
+++ b/docs/工作簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.github\Javastudyer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AE51F1-A336-4595-A4FA-954128E1BE04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A3128E-E304-4A31-85A5-D473E7F467B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{E288B5CC-9D9F-4E72-BEB8-2A63A54CB710}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{E288B5CC-9D9F-4E72-BEB8-2A63A54CB710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="225">
   <si>
     <t>:wrench:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,99 +60,6 @@
   </si>
   <si>
     <t>常用类</t>
-  </si>
-  <si>
-    <t>JVM-1</t>
-  </si>
-  <si>
-    <t>JVM-2</t>
-  </si>
-  <si>
-    <t>TCP-1</t>
-  </si>
-  <si>
-    <t>TCP-2</t>
-  </si>
-  <si>
-    <t>TCP-3</t>
-  </si>
-  <si>
-    <t>数据库MySQL-1</t>
-  </si>
-  <si>
-    <t>数据库MySQL-2</t>
-  </si>
-  <si>
-    <t>数据库MySQL-3</t>
-  </si>
-  <si>
-    <t>数据库MySQL-4</t>
-  </si>
-  <si>
-    <t>redis-1</t>
-  </si>
-  <si>
-    <t>redis-2</t>
-  </si>
-  <si>
-    <t>JDBC-1</t>
-  </si>
-  <si>
-    <t>JDBC-2</t>
-  </si>
-  <si>
-    <t>Spring-1</t>
-  </si>
-  <si>
-    <t>Spring-2</t>
-  </si>
-  <si>
-    <t>SpringMVC-1</t>
-  </si>
-  <si>
-    <t>SpringMVC-2</t>
-  </si>
-  <si>
-    <t>MyBatis-1</t>
-  </si>
-  <si>
-    <t>MyBatis-2</t>
-  </si>
-  <si>
-    <t>MyBatis-3</t>
-  </si>
-  <si>
-    <t>SpringBoot-1</t>
-  </si>
-  <si>
-    <t>SpringBoot-2</t>
-  </si>
-  <si>
-    <t>SpringBoot-3</t>
-  </si>
-  <si>
-    <t>Spring注解-1</t>
-  </si>
-  <si>
-    <t>Spring注解-2</t>
-  </si>
-  <si>
-    <t>项目二众筹+maven</t>
-  </si>
-  <si>
-    <t>项目二众筹+ngnix</t>
-  </si>
-  <si>
-    <t>关键字、集合/数组、源码分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JUC、并发-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并发-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时间复杂度和空间复杂度</t>
@@ -800,6 +707,250 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容部分</t>
+  </si>
+  <si>
+    <t>数据结构与算法知识点</t>
+  </si>
+  <si>
+    <t>内容完成度</t>
+  </si>
+  <si>
+    <t>数据结构完成度</t>
+  </si>
+  <si>
+    <t>CSDN博客</t>
+  </si>
+  <si>
+    <t>程序上传</t>
+  </si>
+  <si>
+    <t>数据类型、基础语法、反射</t>
+  </si>
+  <si>
+    <t>排序算法</t>
+  </si>
+  <si>
+    <t>:pencil2:</t>
+  </si>
+  <si>
+    <t>:wrench:</t>
+  </si>
+  <si>
+    <t>关键字、集合/数组、源码分析</t>
+  </si>
+  <si>
+    <t>13-16</t>
+  </si>
+  <si>
+    <t>17-19</t>
+  </si>
+  <si>
+    <t>20-22</t>
+  </si>
+  <si>
+    <t>23-25</t>
+  </si>
+  <si>
+    <t>26-28</t>
+  </si>
+  <si>
+    <t>29-31</t>
+  </si>
+  <si>
+    <t>JUC、并发\-1</t>
+  </si>
+  <si>
+    <t>32-34</t>
+  </si>
+  <si>
+    <t>并发\-2</t>
+  </si>
+  <si>
+    <t>35-37</t>
+  </si>
+  <si>
+    <t>JVM\-1</t>
+  </si>
+  <si>
+    <t>38-40</t>
+  </si>
+  <si>
+    <t>JVM\-2</t>
+  </si>
+  <si>
+    <t>41-43</t>
+  </si>
+  <si>
+    <t>TCP\-1</t>
+  </si>
+  <si>
+    <t>44-46</t>
+  </si>
+  <si>
+    <t>TCP\-2</t>
+  </si>
+  <si>
+    <t>47-49</t>
+  </si>
+  <si>
+    <t>TCP\-3</t>
+  </si>
+  <si>
+    <t>50-52</t>
+  </si>
+  <si>
+    <t>数据库MySQL\-1</t>
+  </si>
+  <si>
+    <t>53-55</t>
+  </si>
+  <si>
+    <t>数据库MySQL\-2</t>
+  </si>
+  <si>
+    <t>56-58</t>
+  </si>
+  <si>
+    <t>数据库MySQL\-3</t>
+  </si>
+  <si>
+    <t>59-61</t>
+  </si>
+  <si>
+    <t>数据库MySQL\-4</t>
+  </si>
+  <si>
+    <t>62-64</t>
+  </si>
+  <si>
+    <t>redis\-1</t>
+  </si>
+  <si>
+    <t>65-67</t>
+  </si>
+  <si>
+    <t>redis\-2</t>
+  </si>
+  <si>
+    <t>68-70</t>
+  </si>
+  <si>
+    <t>JDBC\-1</t>
+  </si>
+  <si>
+    <t>71-73</t>
+  </si>
+  <si>
+    <t>JDBC\-2</t>
+  </si>
+  <si>
+    <t>74-76</t>
+  </si>
+  <si>
+    <t>Spring\-1</t>
+  </si>
+  <si>
+    <t>77-79</t>
+  </si>
+  <si>
+    <t>Spring\-2</t>
+  </si>
+  <si>
+    <t>80-82</t>
+  </si>
+  <si>
+    <t>SpringMVC\-1</t>
+  </si>
+  <si>
+    <t>83-85</t>
+  </si>
+  <si>
+    <t>SpringMVC\-2</t>
+  </si>
+  <si>
+    <t>86-88</t>
+  </si>
+  <si>
+    <t>MyBatis\-1</t>
+  </si>
+  <si>
+    <t>89-91</t>
+  </si>
+  <si>
+    <t>MyBatis\-2</t>
+  </si>
+  <si>
+    <t>92-94</t>
+  </si>
+  <si>
+    <t>MyBatis\-3</t>
+  </si>
+  <si>
+    <t>95-97</t>
+  </si>
+  <si>
+    <t>SpringBoot\-1</t>
+  </si>
+  <si>
+    <t>98-100</t>
+  </si>
+  <si>
+    <t>SpringBoot\-2</t>
+  </si>
+  <si>
+    <t>101-103</t>
+  </si>
+  <si>
+    <t>SpringBoot\-3</t>
+  </si>
+  <si>
+    <t>104-106</t>
+  </si>
+  <si>
+    <t>Spring注解\-1</t>
+  </si>
+  <si>
+    <t>107-109</t>
+  </si>
+  <si>
+    <t>Spring注解\-2</t>
+  </si>
+  <si>
+    <t>110-112</t>
+  </si>
+  <si>
+    <t>项目二众筹\+maven</t>
+  </si>
+  <si>
+    <t>113-115</t>
+  </si>
+  <si>
+    <t>项目二众筹\+ngnix</t>
+  </si>
+  <si>
+    <t>116-118</t>
+  </si>
+  <si>
+    <t>119-121</t>
+  </si>
+  <si>
+    <t>122-124</t>
+  </si>
+  <si>
+    <t>125-127</t>
+  </si>
+  <si>
+    <t>128-130</t>
+  </si>
+  <si>
+    <t>131-132</t>
+  </si>
+  <si>
+    <t>单元测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,6 +1030,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117F014-3980-4D9B-B644-5A790D3BF703}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1207,786 +1361,1303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <v>67</v>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43836</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44021</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44116</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>224</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G9" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G11" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F12" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>173</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G21" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>179</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G23" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G24" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F25" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G26" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
+        <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G27" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
       </c>
       <c r="D29" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
       </c>
       <c r="D30" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>200</v>
       </c>
       <c r="D31" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G31" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>199</v>
+      </c>
+      <c r="C32" t="s">
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G32" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>201</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
       </c>
       <c r="D33" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F33" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G33" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>203</v>
+      </c>
+      <c r="C34" t="s">
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F34" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>205</v>
+      </c>
+      <c r="C35" t="s">
+        <v>208</v>
       </c>
       <c r="D35" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>207</v>
+      </c>
+      <c r="C36" t="s">
+        <v>210</v>
       </c>
       <c r="D36" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F36" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G36" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>209</v>
+      </c>
+      <c r="C37" t="s">
+        <v>212</v>
       </c>
       <c r="D37" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>211</v>
+      </c>
+      <c r="C38" t="s">
+        <v>214</v>
       </c>
       <c r="D38" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G38" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>43970</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>0</v>
+      <c r="B40" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43974</v>
+      </c>
+      <c r="C44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43975</v>
+      </c>
+      <c r="C45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>44017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44028</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>44031</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44043</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63D034E-4613-4DE3-8D35-5AD51BEE368B}">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C133" sqref="A1:C133"/>
     </sheetView>
   </sheetViews>
@@ -2008,13 +2679,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.25">
@@ -2022,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -2033,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2044,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -2055,7 +2726,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -2066,7 +2737,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -2077,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -2088,7 +2759,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -2099,7 +2770,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -2110,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2121,7 +2792,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2132,7 +2803,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2143,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -2154,7 +2825,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -2165,7 +2836,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -2176,7 +2847,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2187,7 +2858,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -2198,7 +2869,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2209,7 +2880,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -2220,7 +2891,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -2231,7 +2902,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -2242,7 +2913,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -2253,7 +2924,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -2264,7 +2935,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -2275,7 +2946,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -2286,7 +2957,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -2297,7 +2968,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -2308,7 +2979,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -2319,7 +2990,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -2330,7 +3001,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -2341,7 +3012,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -2352,7 +3023,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -2363,7 +3034,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -2374,7 +3045,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -2385,7 +3056,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -2396,7 +3067,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -2407,7 +3078,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -2418,7 +3089,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -2429,7 +3100,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -2440,7 +3111,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -2451,7 +3122,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -2462,7 +3133,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -2473,7 +3144,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -2484,7 +3155,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -2495,7 +3166,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -2506,7 +3177,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -2517,7 +3188,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -2528,7 +3199,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -2539,7 +3210,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -2550,7 +3221,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -2561,7 +3232,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -2572,7 +3243,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
@@ -2583,7 +3254,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
@@ -2594,7 +3265,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -2605,7 +3276,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -2616,7 +3287,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -2627,7 +3298,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -2638,7 +3309,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -2649,7 +3320,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
@@ -2660,7 +3331,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
@@ -2671,7 +3342,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -2682,7 +3353,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -2693,7 +3364,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
@@ -2704,7 +3375,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -2715,7 +3386,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -2726,7 +3397,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
@@ -2737,7 +3408,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -2748,7 +3419,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -2759,7 +3430,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -2770,7 +3441,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
@@ -2781,7 +3452,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
@@ -2792,7 +3463,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -2803,7 +3474,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
@@ -2814,7 +3485,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -2825,7 +3496,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
@@ -2836,7 +3507,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
@@ -2847,7 +3518,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
@@ -2858,7 +3529,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
@@ -2869,7 +3540,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -2880,7 +3551,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
@@ -2891,7 +3562,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
@@ -2902,7 +3573,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
@@ -2913,7 +3584,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
@@ -2924,7 +3595,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
@@ -2935,7 +3606,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -2946,7 +3617,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
@@ -2957,7 +3628,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
@@ -2968,7 +3639,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -2979,7 +3650,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
@@ -2990,7 +3661,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
@@ -3001,7 +3672,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
@@ -3012,7 +3683,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
@@ -3023,7 +3694,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -3034,7 +3705,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
@@ -3045,7 +3716,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
@@ -3056,7 +3727,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -3067,7 +3738,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
@@ -3078,7 +3749,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -3089,7 +3760,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
@@ -3100,7 +3771,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
@@ -3111,7 +3782,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
@@ -3122,7 +3793,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
@@ -3133,7 +3804,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
@@ -3144,7 +3815,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
@@ -3155,7 +3826,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
@@ -3166,7 +3837,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
         <v>0</v>
@@ -3177,7 +3848,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
@@ -3188,7 +3859,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -3199,7 +3870,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
@@ -3210,7 +3881,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
@@ -3221,7 +3892,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
@@ -3232,7 +3903,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
@@ -3243,7 +3914,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
@@ -3254,7 +3925,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
@@ -3265,7 +3936,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
@@ -3276,7 +3947,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
         <v>0</v>
@@ -3287,7 +3958,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
@@ -3298,7 +3969,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
@@ -3309,7 +3980,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C119" t="s">
         <v>0</v>
@@ -3320,7 +3991,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
@@ -3331,7 +4002,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
@@ -3342,7 +4013,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
@@ -3353,7 +4024,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C123" t="s">
         <v>0</v>
@@ -3364,7 +4035,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C124" t="s">
         <v>0</v>
@@ -3375,7 +4046,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C125" t="s">
         <v>0</v>
@@ -3386,7 +4057,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C126" t="s">
         <v>0</v>
@@ -3397,7 +4068,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C127" t="s">
         <v>0</v>
@@ -3408,7 +4079,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C128" t="s">
         <v>0</v>
@@ -3419,7 +4090,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C129" t="s">
         <v>0</v>
@@ -3430,7 +4101,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C130" t="s">
         <v>0</v>
@@ -3441,7 +4112,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C131" t="s">
         <v>0</v>
@@ -3452,7 +4123,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C132" t="s">
         <v>0</v>
@@ -3463,7 +4134,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C133" t="s">
         <v>0</v>

--- a/docs/工作簿1.xlsx
+++ b/docs/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.github\Javastudyer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A3128E-E304-4A31-85A5-D473E7F467B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E483B217-F4D4-4882-90D8-95ED8A3BDA37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{E288B5CC-9D9F-4E72-BEB8-2A63A54CB710}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="223">
   <si>
     <t>:wrench:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,9 +716,6 @@
     <t>数据结构与算法知识点</t>
   </si>
   <si>
-    <t>内容完成度</t>
-  </si>
-  <si>
     <t>数据结构完成度</t>
   </si>
   <si>
@@ -948,10 +945,6 @@
   </si>
   <si>
     <t>131-132</t>
-  </si>
-  <si>
-    <t>单元测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1018,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,6 +1026,12 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1348,989 +1347,1027 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117F014-3980-4D9B-B644-5A790D3BF703}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>148</v>
       </c>
-      <c r="G1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43932</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
         <v>150</v>
       </c>
-      <c r="C2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" t="s">
-        <v>153</v>
-      </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43933</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="4">
+        <v>153</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="4">
         <v>43836</v>
       </c>
-      <c r="D3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" t="s">
-        <v>152</v>
-      </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43934</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="4">
         <v>44021</v>
       </c>
-      <c r="D4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" t="s">
-        <v>153</v>
-      </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43935</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="4">
         <v>44116</v>
       </c>
-      <c r="D5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" t="s">
-        <v>153</v>
-      </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43936</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" t="s">
-        <v>155</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43937</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>156</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43938</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>157</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43939</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>158</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43940</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>159</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43941</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>160</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43942</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>162</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43943</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" t="s">
-        <v>164</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43944</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" t="s">
-        <v>166</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43945</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" t="s">
-        <v>168</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43946</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" t="s">
-        <v>170</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43947</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43948</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43949</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" t="s">
-        <v>176</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43950</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" t="s">
-        <v>178</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43951</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" t="s">
-        <v>180</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43952</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" t="s">
-        <v>182</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43953</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" t="s">
-        <v>184</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43954</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" t="s">
-        <v>186</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43955</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" t="s">
-        <v>188</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43956</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" t="s">
-        <v>190</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43957</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C27" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43958</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" t="s">
-        <v>194</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43959</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" t="s">
-        <v>196</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43960</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C30" t="s">
-        <v>198</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43961</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" t="s">
-        <v>200</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43962</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43963</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" t="s">
-        <v>204</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43964</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" t="s">
-        <v>206</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43965</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" t="s">
-        <v>208</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43966</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" t="s">
-        <v>210</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43967</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" t="s">
-        <v>212</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43968</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" t="s">
-        <v>214</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="F38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43969</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" t="s">
-        <v>216</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="F39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43970</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" t="s">
-        <v>218</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="H40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43971</v>
       </c>
-      <c r="B41" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43972</v>
       </c>
-      <c r="C42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43973</v>
       </c>
-      <c r="C43" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43974</v>
       </c>
-      <c r="C44" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43975</v>
       </c>
-      <c r="C45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43976</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43977</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43978</v>
       </c>
@@ -2356,311 +2393,12 @@
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>43983</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>43984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>43985</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>43986</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>43987</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>43988</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>43989</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>43990</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>43991</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>43992</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>43993</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>43994</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>43995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>43996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>43997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>43998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>43999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>44001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>44002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>44003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>44004</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>44005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>44006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>44007</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>44008</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>44009</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>44010</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>44011</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>44012</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>44014</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>44015</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>44016</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>44017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>44018</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>44019</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>44020</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>44022</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>44023</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>44024</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>44025</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>44026</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>44027</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>44028</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>44029</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>44031</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>44033</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>44034</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>44035</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>44036</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>44037</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>44038</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>44039</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>44040</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>44041</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>44042</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>44043</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
